--- a/Financials/APO.xlsx
+++ b/Financials/APO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74196E-7F13-EC4A-B8D9-BACD973D716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD6414-6FC7-6247-938E-7AED2C839437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,9 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>166.72</v>
     <v>82.71</v>
-    <v>1.5888</v>
-    <v>14.39</v>
-    <v>9.6402000000000002E-2</v>
+    <v>1.6009</v>
+    <v>-3.85</v>
+    <v>-2.3523000000000002E-2</v>
+    <v>1.58</v>
+    <v>9.8860000000000007E-3</v>
     <v>USD</v>
     <v>Apollo Global Management, Inc. is a global alternative asset manager and a retirement services provider. It operates in three segments: Asset Management, Retirement Services and Principal Investing. The Asset Management segment focuses on three investing strategies: yield, hybrid, and equity. These strategies reflect the range of investment capabilities across its platform based on relative risk and return. The Retirement Services business is conducted by Athene Holding Ltd (Athene), a financial services company that specializes in issuing, reinsuring, and acquiring retirement savings products designed for the increasing number of individuals and institutions seeking to fund retirement needs. Athene product lines include annuities and funding agreements. The Principal Investing segment includes realized performance fee income, realized investment income from its balance sheet investments, and certain allocable expenses related to corporate functions supporting the entire company.</v>
     <v>4879</v>
@@ -1952,24 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>9 West 57Th Street, 42Nd Floor, NEW YORK, NY, 10019 US</v>
-    <v>166.72</v>
+    <v>162.24</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45602.998403772654</v>
+    <v>45604.033158414066</v>
     <v>0</v>
-    <v>160.26</v>
-    <v>93209967172</v>
+    <v>159.31</v>
+    <v>91022955844</v>
     <v>APOLLO GLOBAL MANAGEMENT, INC.</v>
     <v>APOLLO GLOBAL MANAGEMENT, INC.</v>
-    <v>160.26</v>
-    <v>17.674199999999999</v>
-    <v>149.27000000000001</v>
-    <v>163.66</v>
+    <v>161.19999999999999</v>
+    <v>17.258500000000002</v>
+    <v>163.66999999999999</v>
+    <v>159.82</v>
+    <v>161.4</v>
     <v>569534200</v>
     <v>APO</v>
     <v>APOLLO GLOBAL MANAGEMENT, INC. (XNYS:APO)</v>
-    <v>159</v>
-    <v>2897266</v>
+    <v>3563804</v>
+    <v>3004191</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2001,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2021,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2037,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2048,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2120,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2171,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2178,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2878,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>163.66</v>
+        <v>159.82</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>25.891657547777779</v>
+        <v>25.28415440111111</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2925,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.6402000000000002E-2</v>
+        <v>-2.3523000000000002E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>21.651560318699186</v>
+        <v>21.143543750058072</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2973,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>93209967172</v>
+        <v>91022955844</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.2437518129587437E-2</v>
+        <v>3.3216895364086348E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3022,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.5888</v>
+        <v>1.6009</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3055,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.15522206686095652</v>
+        <v>-0.13492456177239487</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Financials/APO.xlsx
+++ b/Financials/APO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD6414-6FC7-6247-938E-7AED2C839437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE01101-2C40-8F4C-9B42-8880B2351EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -96,13 +96,7 @@
     <t>Net Income Margin</t>
   </si>
   <si>
-    <t>Equity Value</t>
-  </si>
-  <si>
     <t>FCF Margin</t>
-  </si>
-  <si>
-    <t>Total Debt</t>
   </si>
   <si>
     <t>Discount Rate</t>
@@ -159,9 +153,6 @@
     <t>Share Dilution</t>
   </si>
   <si>
-    <t>Cash &amp; Securities</t>
-  </si>
-  <si>
     <t>Growth Rate</t>
   </si>
   <si>
@@ -172,6 +163,15 @@
   </si>
   <si>
     <t>Updated on 10/23/2024</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Capital</t>
   </si>
 </sst>
 </file>
@@ -1940,13 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>166.72</v>
-    <v>82.71</v>
-    <v>1.6009</v>
-    <v>-3.85</v>
-    <v>-2.3523000000000002E-2</v>
-    <v>1.58</v>
-    <v>9.8860000000000007E-3</v>
+    <v>169.14500000000001</v>
+    <v>86.21</v>
+    <v>1.6</v>
+    <v>3.94</v>
+    <v>2.3979E-2</v>
+    <v>1.43</v>
+    <v>8.4989999999999996E-3</v>
     <v>USD</v>
     <v>Apollo Global Management, Inc. is a global alternative asset manager and a retirement services provider. It operates in three segments: Asset Management, Retirement Services and Principal Investing. The Asset Management segment focuses on three investing strategies: yield, hybrid, and equity. These strategies reflect the range of investment capabilities across its platform based on relative risk and return. The Retirement Services business is conducted by Athene Holding Ltd (Athene), a financial services company that specializes in issuing, reinsuring, and acquiring retirement savings products designed for the increasing number of individuals and institutions seeking to fund retirement needs. Athene product lines include annuities and funding agreements. The Principal Investing segment includes realized performance fee income, realized investment income from its balance sheet investments, and certain allocable expenses related to corporate functions supporting the entire company.</v>
     <v>4879</v>
@@ -1954,25 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>9 West 57Th Street, 42Nd Floor, NEW YORK, NY, 10019 US</v>
-    <v>162.24</v>
+    <v>169.14500000000001</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45604.033158414066</v>
+    <v>45616.038108784378</v>
     <v>0</v>
-    <v>159.31</v>
-    <v>91022955844</v>
+    <v>163.95</v>
+    <v>95198626125</v>
     <v>APOLLO GLOBAL MANAGEMENT, INC.</v>
     <v>APOLLO GLOBAL MANAGEMENT, INC.</v>
-    <v>161.19999999999999</v>
-    <v>17.258500000000002</v>
-    <v>163.66999999999999</v>
-    <v>159.82</v>
-    <v>161.4</v>
-    <v>569534200</v>
+    <v>164.5</v>
+    <v>18.168800000000001</v>
+    <v>164.31</v>
+    <v>168.25</v>
+    <v>169.68</v>
+    <v>565816500</v>
     <v>APO</v>
     <v>APOLLO GLOBAL MANAGEMENT, INC. (XNYS:APO)</v>
-    <v>3563804</v>
-    <v>3004191</v>
+    <v>4707125</v>
+    <v>3056768</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2865,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54989D48-4DCD-DB43-B1DE-662CF0EB5313}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2899,17 +2899,17 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>159.82</v>
+        <v>168.25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>25.28415440111111</v>
+        <v>26.4440628125</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="44">
         <f>E14</f>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>561738723.44341552</v>
+        <v>558071909.31329727</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="76"/>
       <c r="M3" s="2"/>
@@ -2946,17 +2946,17 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.3523000000000002E-2</v>
+        <v>2.3979E-2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>21.143543750058072</v>
+        <v>22.113502003484321</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="44">
         <f>F17</f>
@@ -2969,7 +2969,7 @@
         <v>25919000000</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I4" s="45">
         <f>NPV(I6,F18,G18,H18,I18,(J18+I3))</f>
@@ -2982,7 +2982,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2994,44 +2994,44 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>91022955844</v>
+        <v>95198626125</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.3216895364086348E-2</v>
+        <v>3.1759912123416688E-2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="44">
         <f>F20</f>
         <v>0.83986111111111106</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="55">
         <v>23890000000</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I5" s="45">
         <f>I4+G4-G5</f>
         <v>77663949229.333099</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>138.25635653753585</v>
+        <v>139.16477058466879</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3043,23 +3043,23 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.6009</v>
+        <v>1.6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="43">
         <f>K22</f>
         <v>-2.737491991379811E-3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="54">
-        <v>0.14899999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="46">
         <f>G4-G5</f>
@@ -3072,14 +3072,14 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.13492456177239487</v>
+        <v>-0.17286911985338016</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="23">
         <v>2221000000</v>
@@ -3198,7 +3198,7 @@
         <v>5530000000</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="23">
         <v>2221000000</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="23">
         <v>101000000</v>
@@ -3380,7 +3380,7 @@
         <v>7631000000</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" ref="B17:J17" si="2">B15/B10</f>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="23">
         <v>771000000</v>
@@ -3518,7 +3518,7 @@
         <v>6799100000</v>
       </c>
       <c r="K18" s="62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="35">
         <f t="shared" ref="B20:J20" si="4">B18/B10</f>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="23">
         <v>572300000</v>
@@ -3645,7 +3645,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
       <c r="K21" s="62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
